--- a/Table Structure.xlsx
+++ b/Table Structure.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>User</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>ForeignKey</t>
+  </si>
+  <si>
+    <t>isActive</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -253,6 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Y31"/>
+  <dimension ref="A3:Z31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +586,7 @@
     <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -593,7 +597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -602,7 +606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>46</v>
@@ -611,7 +615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -624,8 +628,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,14 +661,17 @@
       <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -671,14 +679,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -689,7 +697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -717,8 +725,9 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -794,14 +803,17 @@
       <c r="Y19" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -809,14 +821,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -827,13 +839,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -841,13 +853,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>1</v>
       </c>

--- a/Table Structure.xlsx
+++ b/Table Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTD\WPL\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTD\WPL\Project\MeanApp3\Craigslist-One\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>User</t>
   </si>
@@ -137,9 +137,6 @@
     <t>DateAvaiable</t>
   </si>
   <si>
-    <t>TypeId</t>
-  </si>
-  <si>
     <t>Furnished</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
   </si>
   <si>
     <t>CatId</t>
-  </si>
-  <si>
-    <t>HouseType</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Condition</t>
@@ -571,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z31"/>
+  <dimension ref="A3:Y28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J9" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,31 +579,31 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -662,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -697,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -725,9 +716,8 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
@@ -797,23 +787,20 @@
       <c r="W19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X19" s="4" t="s">
+      <c r="X19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Y19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -821,50 +808,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
